--- a/project_timeline.xlsx
+++ b/project_timeline.xlsx
@@ -68,7 +68,7 @@
     <t>Submit best SKL model. Produce vizs.</t>
   </si>
   <si>
-    <t>Review analysis and plan final steps &amp; documentation</t>
+    <t>Review analysis, plan final steps &amp; documente process so far</t>
   </si>
 </sst>
 </file>
@@ -891,7 +891,6 @@
 </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -941,7 +940,6 @@
 </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -991,7 +989,6 @@
 </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1041,7 +1038,6 @@
 </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1091,7 +1087,6 @@
 </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1102,7 +1097,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1136,7 +1130,6 @@
 </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1240,7 +1233,7 @@
                   <c:v>Submit best SKL model. Produce vizs.</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Review analysis and plan final steps &amp; documentation</c:v>
+                  <c:v>Review analysis, plan final steps &amp; documente process so far</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2421,8 +2414,8 @@
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:L20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
